--- a/config_2.9/act_ty_lb1_config.xlsx
+++ b/config_2.9/act_ty_lb1_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>line</t>
   </si>
@@ -30,9 +30,6 @@
     <t>permission|权限</t>
   </si>
   <si>
-    <t>item_key|道具key</t>
-  </si>
-  <si>
     <t>box_exchange_id</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>xg_desc|限购描述</t>
   </si>
   <si>
-    <t>每个礼包每日限购1次</t>
-  </si>
-  <si>
     <t>id|其实就是line</t>
   </si>
   <si>
@@ -87,64 +81,25 @@
     <t>jl_number|奖励描述</t>
   </si>
   <si>
-    <t>5020万金币</t>
-  </si>
-  <si>
     <t>498元</t>
   </si>
   <si>
-    <t>活动期间可开启，最高可得2000福利券！</t>
-  </si>
-  <si>
     <t>gelb_btn_bx3</t>
   </si>
   <si>
-    <t>"x10","传说x15"</t>
-  </si>
-  <si>
-    <t>2010万金币</t>
-  </si>
-  <si>
     <t>198元</t>
   </si>
   <si>
-    <t>"x6","传说x5"</t>
-  </si>
-  <si>
-    <t>996万金币</t>
-  </si>
-  <si>
     <t>98元</t>
   </si>
   <si>
-    <t>活动期间可开启，最高可得1000福利券！</t>
-  </si>
-  <si>
     <t>gelb_btn_bx2</t>
   </si>
   <si>
-    <t>"x4","史诗x3"</t>
-  </si>
-  <si>
-    <t>488万金币</t>
-  </si>
-  <si>
     <t>48元</t>
   </si>
   <si>
-    <t>活动期间可开启，最高可得500福利券！</t>
-  </si>
-  <si>
     <t>gelb_btn_bx1</t>
-  </si>
-  <si>
-    <t>"x2","稀有x3"</t>
-  </si>
-  <si>
-    <t>5000万金币</t>
-  </si>
-  <si>
-    <t>2000万金币</t>
   </si>
   <si>
     <r>
@@ -161,35 +116,43 @@
       </rPr>
       <t>ty_lb1_icon_box2_3"</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"3dby_btn_jb","ty_lb1_icon_4"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"3dby_btn_jb","ty_lb1_icon_3"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"zpg_icon_yg","ty_lb1_icon_box2_3"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"zpg_icon_yg","ty_lb1_icon_box2_3"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"zpg_icon_shui","ty_lb1_icon_4"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"zpg_icon_shui","ty_lb1_icon_3"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_key|道具key（抽奖）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5200万金币</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
     </r>
     <r>
       <rPr>
@@ -200,20 +163,182 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0,71,72</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_hqjnh_xybox","prop_hqjnh_ssbox","prop_hqjnh_csbox"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0万金币</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万金币</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万金币</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"双倍奖励卡，请在3D捕鱼中使用"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"万能字符，可替代“新年快乐”任意字符"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"请在苹果大战中使用","万能字符，可替代“新年快乐”任意字符"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10","x280"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x6","x180"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x4","x88"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2","x40"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1","x240"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1","x140"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"x4","x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"x2","x3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +350,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -232,20 +358,16 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -257,6 +379,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -276,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,12 +409,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,32 +453,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,7 +578,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -669,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -689,61 +809,53 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E13" s="16"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E14" s="16"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E15" s="16"/>
+      <c r="E15" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -753,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -768,31 +880,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
-        <v>1610409600</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1610985599</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="B2" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="D2" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -802,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,7 +921,7 @@
     <col min="1" max="1" width="16.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="78" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="39.625" style="2" customWidth="1"/>
@@ -821,28 +931,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -850,112 +960,112 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="13">
-        <v>10428</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="F2" s="17">
+        <v>10465</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="17">
+        <v>10466</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="13">
-        <v>10429</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
+      <c r="B4" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="13">
-        <v>10430</v>
-      </c>
-      <c r="G4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="17">
+        <v>10467</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
+      <c r="B5" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="13">
-        <v>10431</v>
-      </c>
-      <c r="G5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="17">
+        <v>10468</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F6" s="14"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -963,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -972,7 +1082,7 @@
     <col min="1" max="1" width="16.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="71.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="46.625" style="2" customWidth="1"/>
@@ -982,28 +1092,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -1011,107 +1121,107 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="13">
-        <v>10432</v>
-      </c>
-      <c r="G2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="17">
+        <v>10469</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="13">
-        <v>10433</v>
-      </c>
-      <c r="G3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="17">
+        <v>10470</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
+      <c r="B4" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="17">
+        <v>10471</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="13">
-        <v>10434</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
+      <c r="B5" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="13">
-        <v>10435</v>
-      </c>
-      <c r="G5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="17">
+        <v>10472</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>

--- a/config_2.9/act_ty_lb1_config.xlsx
+++ b/config_2.9/act_ty_lb1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>line</t>
   </si>
@@ -84,63 +84,13 @@
     <t>498元</t>
   </si>
   <si>
-    <t>gelb_btn_bx3</t>
-  </si>
-  <si>
     <t>198元</t>
   </si>
   <si>
     <t>98元</t>
   </si>
   <si>
-    <t>gelb_btn_bx2</t>
-  </si>
-  <si>
     <t>48元</t>
-  </si>
-  <si>
-    <t>gelb_btn_bx1</t>
-  </si>
-  <si>
-    <r>
-      <t>"3dby_btn_jb","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_lb1_icon_box2_3"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3dby_btn_jb","ty_lb1_icon_4"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3dby_btn_jb","ty_lb1_icon_3"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"zpg_icon_yg","ty_lb1_icon_box2_3"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"zpg_icon_yg","ty_lb1_icon_box2_3"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"zpg_icon_shui","ty_lb1_icon_4"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"zpg_icon_shui","ty_lb1_icon_3"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>item_key|道具key（抽奖）</t>
@@ -299,6 +249,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -326,6 +277,135 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_lb1_btn_bx3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_lb1_btn_bx2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_lb1_btn_bx1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_jb","ty_lb1_wnz"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"zpg_icon_yg","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ty_lb1_wnz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"zpg_icon_yg","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ty_lb1_wnz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"zpg_icon_shui","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ty_lb1_wnz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"zpg_icon_shui","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ty_lb1_wnz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -810,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -912,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -960,25 +1040,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="17">
         <v>10465</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>26</v>
+      <c r="G2" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -986,25 +1066,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F3" s="17">
         <v>10466</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>26</v>
+      <c r="G3" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1012,25 +1092,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="F4" s="17">
         <v>10467</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>27</v>
+      <c r="G4" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1038,25 +1118,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="F5" s="17">
         <v>10468</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>28</v>
+      <c r="G5" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1073,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1121,25 +1201,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="F2" s="17">
         <v>10469</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>29</v>
+      <c r="G2" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1147,25 +1227,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="F3" s="17">
         <v>10470</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>30</v>
+      <c r="G3" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1173,25 +1253,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F4" s="17">
         <v>10471</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>31</v>
+      <c r="G4" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1199,25 +1279,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="F5" s="17">
         <v>10472</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>32</v>
+      <c r="G5" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
